--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>2397500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>819800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>819800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1134400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>1134400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3543100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>3543100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>818300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>818300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2438300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>2438300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>699800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>699800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1478800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>1478800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2174000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>2174000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>569200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>569200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3822300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>3822300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3097400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>3097400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1209300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>1209300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1328100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1127500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>1127500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1940900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2463200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>2463200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1053000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>1053000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3619100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>3619100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2143900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>2143900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3377800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>3377800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>8950700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>5836200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>5836200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>5802200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>5802200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>10735900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2695"/>
+  <dimension ref="A1:I2696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94703,6 +94703,41 @@
         <v>10735900</v>
       </c>
     </row>
+    <row r="2696">
+      <c r="A2696" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2696" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2696" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2696" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2696" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2696" t="n">
+        <v>7099700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2696"/>
+  <dimension ref="A1:I2697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94738,6 +94738,41 @@
         <v>7099700</v>
       </c>
     </row>
+    <row r="2697">
+      <c r="A2697" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2697" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2697" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2697" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2697" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2697" t="n">
+        <v>4729500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2697"/>
+  <dimension ref="A1:I2698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94773,6 +94773,41 @@
         <v>4729500</v>
       </c>
     </row>
+    <row r="2698">
+      <c r="A2698" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2698" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2698" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2698" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2698" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2698" t="n">
+        <v>5569000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2698"/>
+  <dimension ref="A1:I2699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94808,6 +94808,41 @@
         <v>5569000</v>
       </c>
     </row>
+    <row r="2699">
+      <c r="A2699" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2699" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2699" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2699" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2699" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2699" t="n">
+        <v>4289900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2699"/>
+  <dimension ref="A1:I2700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94843,6 +94843,41 @@
         <v>4289900</v>
       </c>
     </row>
+    <row r="2700">
+      <c r="A2700" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2700" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2700" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2700" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2700" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2700" t="n">
+        <v>3970400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2700"/>
+  <dimension ref="A1:I2701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94878,6 +94878,41 @@
         <v>3970400</v>
       </c>
     </row>
+    <row r="2701">
+      <c r="A2701" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2701" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2701" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2701" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2701" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2701" t="n">
+        <v>2666800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2701"/>
+  <dimension ref="A1:I2702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94913,6 +94913,41 @@
         <v>2666800</v>
       </c>
     </row>
+    <row r="2702">
+      <c r="A2702" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2702" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2702" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2702" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2702" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2702" t="n">
+        <v>3129400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2702"/>
+  <dimension ref="A1:I2703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94948,6 +94948,41 @@
         <v>3129400</v>
       </c>
     </row>
+    <row r="2703">
+      <c r="A2703" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2703" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2703" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2703" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2703" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2703" t="n">
+        <v>4289500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2703"/>
+  <dimension ref="A1:I2704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94983,6 +94983,41 @@
         <v>4289500</v>
       </c>
     </row>
+    <row r="2704">
+      <c r="A2704" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2704" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2704" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2704" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2704" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2704" t="n">
+        <v>11029300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2704"/>
+  <dimension ref="A1:I2705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95018,6 +95018,41 @@
         <v>11029300</v>
       </c>
     </row>
+    <row r="2705">
+      <c r="A2705" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2705" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2705" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2705" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2705" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2705" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2705" t="n">
+        <v>10111900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2705"/>
+  <dimension ref="A1:I2706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95053,6 +95053,41 @@
         <v>10111900</v>
       </c>
     </row>
+    <row r="2706">
+      <c r="A2706" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2706" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2706" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2706" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2706" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2706" t="n">
+        <v>3403900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2706"/>
+  <dimension ref="A1:I2707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95088,6 +95088,41 @@
         <v>3403900</v>
       </c>
     </row>
+    <row r="2707">
+      <c r="A2707" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2707" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2707" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2707" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2707" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2707" t="n">
+        <v>3800300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2707"/>
+  <dimension ref="A1:I2708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95123,6 +95123,41 @@
         <v>3800300</v>
       </c>
     </row>
+    <row r="2708">
+      <c r="A2708" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2708" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2708" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2708" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2708" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2708" t="n">
+        <v>3485600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2708"/>
+  <dimension ref="A1:I2709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95158,6 +95158,41 @@
         <v>3485600</v>
       </c>
     </row>
+    <row r="2709">
+      <c r="A2709" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2709" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2709" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2709" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2709" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2709" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2709" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2709" t="n">
+        <v>1872100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2709"/>
+  <dimension ref="A1:I2710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95193,6 +95193,41 @@
         <v>1872100</v>
       </c>
     </row>
+    <row r="2710">
+      <c r="A2710" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2710" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2710" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2710" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2710" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2710" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2710" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2710" t="n">
+        <v>2483000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2796"/>
+  <dimension ref="A1:I2797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98238,6 +98238,41 @@
         <v>2483000</v>
       </c>
     </row>
+    <row r="2797">
+      <c r="A2797" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2797" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2797" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2797" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2797" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2797" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2797" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2797" t="n">
+        <v>2960400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2797"/>
+  <dimension ref="A1:I2798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98273,6 +98273,41 @@
         <v>2960400</v>
       </c>
     </row>
+    <row r="2798">
+      <c r="A2798" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2798" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2798" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2798" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2798" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2798" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2798" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2798" t="n">
+        <v>7292500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2798"/>
+  <dimension ref="A1:I2799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98308,6 +98308,41 @@
         <v>7292500</v>
       </c>
     </row>
+    <row r="2799">
+      <c r="A2799" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2799" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2799" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2799" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2799" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2799" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2799" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2799" t="n">
+        <v>14380600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2799"/>
+  <dimension ref="A1:I2800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98343,6 +98343,41 @@
         <v>14380600</v>
       </c>
     </row>
+    <row r="2800">
+      <c r="A2800" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2800" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2800" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2800" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2800" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2800" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2800" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2800" t="n">
+        <v>6032600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2800"/>
+  <dimension ref="A1:I2801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98378,6 +98378,41 @@
         <v>6032600</v>
       </c>
     </row>
+    <row r="2801">
+      <c r="A2801" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2801" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2801" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2801" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2801" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2801" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2801" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2801" t="n">
+        <v>3837800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2801"/>
+  <dimension ref="A1:I2802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98413,6 +98413,41 @@
         <v>3837800</v>
       </c>
     </row>
+    <row r="2802">
+      <c r="A2802" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2802" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2802" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2802" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2802" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2802" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2802" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2802" t="n">
+        <v>4258600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2802"/>
+  <dimension ref="A1:I2803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98448,6 +98448,41 @@
         <v>4258600</v>
       </c>
     </row>
+    <row r="2803">
+      <c r="A2803" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2803" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2803" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2803" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2803" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2803" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2803" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2803" t="n">
+        <v>2957000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2803"/>
+  <dimension ref="A1:I2804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98483,6 +98483,41 @@
         <v>2957000</v>
       </c>
     </row>
+    <row r="2804">
+      <c r="A2804" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2804" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2804" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2804" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2804" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2804" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2804" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2804" t="n">
+        <v>9367000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2804"/>
+  <dimension ref="A1:I2805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98518,6 +98518,41 @@
         <v>9367000</v>
       </c>
     </row>
+    <row r="2805">
+      <c r="A2805" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2805" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2805" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2805" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2805" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2805" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2805" t="n">
+        <v>4646300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2805"/>
+  <dimension ref="A1:I2806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98553,6 +98553,41 @@
         <v>4646300</v>
       </c>
     </row>
+    <row r="2806">
+      <c r="A2806" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2806" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2806" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2806" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2806" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2806" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2806" t="n">
+        <v>11273500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2806"/>
+  <dimension ref="A1:I2808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98588,6 +98588,76 @@
         <v>11273500</v>
       </c>
     </row>
+    <row r="2807">
+      <c r="A2807" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2807" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2807" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2807" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2807" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2807" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2807" t="n">
+        <v>14341100</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2808" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2808" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2808" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2808" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2808" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2808" t="n">
+        <v>10952700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2808"/>
+  <dimension ref="A1:I2809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98658,6 +98658,41 @@
         <v>10952700</v>
       </c>
     </row>
+    <row r="2809">
+      <c r="A2809" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2809" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2809" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2809" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2809" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2809" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2809" t="n">
+        <v>4134200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2809"/>
+  <dimension ref="A1:I2812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98693,6 +98693,111 @@
         <v>4134200</v>
       </c>
     </row>
+    <row r="2810">
+      <c r="A2810" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2810" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2810" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2810" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2810" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2810" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2810" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2810" t="n">
+        <v>17923500</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2811" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2811" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2811" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2811" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2811" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2811" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2811" t="n">
+        <v>43956100</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2812" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2812" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2812" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2812" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2812" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2812" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2812" t="n">
+        <v>7759000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2812"/>
+  <dimension ref="A1:I2813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98798,6 +98798,41 @@
         <v>7759000</v>
       </c>
     </row>
+    <row r="2813">
+      <c r="A2813" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2813" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2813" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2813" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2813" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2813" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2813" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2813" t="n">
+        <v>10143800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2813"/>
+  <dimension ref="A1:I2814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98833,6 +98833,41 @@
         <v>10143800</v>
       </c>
     </row>
+    <row r="2814">
+      <c r="A2814" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2814" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2814" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2814" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2814" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2814" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2814" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2814" t="n">
+        <v>7124400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5148.xlsx
+++ b/data/5148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2814"/>
+  <dimension ref="A1:I2817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98868,6 +98868,111 @@
         <v>7124400</v>
       </c>
     </row>
+    <row r="2815">
+      <c r="A2815" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2815" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2815" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2815" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2815" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2815" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2815" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2815" t="n">
+        <v>6904300</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2816" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2816" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2816" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2816" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2816" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2816" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2816" t="n">
+        <v>4648100</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2817" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D2817" t="inlineStr">
+        <is>
+          <t>UEMS</t>
+        </is>
+      </c>
+      <c r="E2817" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2817" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2817" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2817" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2817" t="n">
+        <v>11498900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
